--- a/CommonData/OrgTestData.xlsx
+++ b/CommonData/OrgTestData.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium WorkSpace\TestyantraProject\CommonData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFE3ED-B74E-483F-84E4-9888C7F22DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F55E4066-D537-4948-8988-5FDAE4E11540}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -92,12 +88,36 @@
   </si>
   <si>
     <t>Rowan</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>123qwe</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>54321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,10 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,22 +471,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0A18D4-5A47-478C-949D-9068E44DB2AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +514,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -504,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -532,7 +553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -552,6 +573,57 @@
       </c>
       <c r="C11" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CommonData/OrgTestData.xlsx
+++ b/CommonData/OrgTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium WorkSpace\TestyantraProject\CommonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFE3ED-B74E-483F-84E4-9888C7F22DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E0678-D814-44FE-AE36-0F438BF6B8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F55E4066-D537-4948-8988-5FDAE4E11540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F55E4066-D537-4948-8988-5FDAE4E11540}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -92,6 +93,30 @@
   </si>
   <si>
     <t>Rowan</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>pavan</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>sandeep</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>soumya</t>
+  </si>
+  <si>
+    <t>s1234</t>
   </si>
 </sst>
 </file>
@@ -136,7 +161,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0A18D4-5A47-478C-949D-9068E44DB2AD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -491,7 +516,6 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -552,6 +576,53 @@
       </c>
       <c r="C11" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EDADC-8B19-49DA-ACAA-5FFE508D271E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
